--- a/ref/ingestion/calibrated/chile/model_input_variables_chile_af_calibrated.xlsx
+++ b/ref/ingestion/calibrated/chile/model_input_variables_chile_af_calibrated.xlsx
@@ -6591,112 +6591,112 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS35">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="36" spans="1:45">
@@ -6835,112 +6835,112 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS37">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="38" spans="1:45">
@@ -6957,112 +6957,112 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS38">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="39" spans="1:45">
@@ -7079,112 +7079,112 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS39">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="40" spans="1:45">
@@ -7323,112 +7323,112 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS41">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="42" spans="1:45">
@@ -7445,112 +7445,112 @@
         <v>1</v>
       </c>
       <c r="J42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS42">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="43" spans="1:45">
@@ -10647,112 +10647,112 @@
         <v>1</v>
       </c>
       <c r="J68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS68">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="69" spans="1:45">
@@ -10891,112 +10891,112 @@
         <v>1</v>
       </c>
       <c r="J70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS70">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="71" spans="1:45">
@@ -11013,112 +11013,112 @@
         <v>1</v>
       </c>
       <c r="J71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS71">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="72" spans="1:45">
@@ -11135,112 +11135,112 @@
         <v>1</v>
       </c>
       <c r="J72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS72">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="73" spans="1:45">
@@ -11379,112 +11379,112 @@
         <v>1</v>
       </c>
       <c r="J74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS74">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="75" spans="1:45">
@@ -11501,112 +11501,112 @@
         <v>1</v>
       </c>
       <c r="J75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS75">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="76" spans="1:45">
@@ -11623,112 +11623,112 @@
         <v>1</v>
       </c>
       <c r="J76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS76">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="77" spans="1:45">
@@ -11867,112 +11867,112 @@
         <v>1</v>
       </c>
       <c r="J78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS78">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="79" spans="1:45">
@@ -11989,112 +11989,112 @@
         <v>1</v>
       </c>
       <c r="J79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS79">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="80" spans="1:45">
@@ -16563,112 +16563,112 @@
         <v>1</v>
       </c>
       <c r="J116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS116">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="117" spans="1:45">
@@ -16807,112 +16807,112 @@
         <v>1</v>
       </c>
       <c r="J118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS118">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="119" spans="1:45">
@@ -16929,112 +16929,112 @@
         <v>1</v>
       </c>
       <c r="J119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS119">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="120" spans="1:45">
@@ -17051,112 +17051,112 @@
         <v>1</v>
       </c>
       <c r="J120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS120">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="121" spans="1:45">
@@ -17295,112 +17295,112 @@
         <v>1</v>
       </c>
       <c r="J122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS122">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="123" spans="1:45">
@@ -17417,112 +17417,112 @@
         <v>1</v>
       </c>
       <c r="J123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS123">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="124" spans="1:45">
@@ -17539,112 +17539,112 @@
         <v>1</v>
       </c>
       <c r="J124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS124">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="125" spans="1:45">
@@ -17783,112 +17783,112 @@
         <v>1</v>
       </c>
       <c r="J126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS126">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="127" spans="1:45">
@@ -17905,112 +17905,112 @@
         <v>1</v>
       </c>
       <c r="J127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS127">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="128" spans="1:45">
@@ -18149,112 +18149,112 @@
         <v>1</v>
       </c>
       <c r="J129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS129">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="130" spans="1:45">
@@ -18393,112 +18393,112 @@
         <v>1</v>
       </c>
       <c r="J131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS131">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="132" spans="1:45">
@@ -18515,112 +18515,112 @@
         <v>1</v>
       </c>
       <c r="J132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS132">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="133" spans="1:45">
@@ -18637,112 +18637,112 @@
         <v>1</v>
       </c>
       <c r="J133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS133">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="134" spans="1:45">
@@ -18881,112 +18881,112 @@
         <v>1</v>
       </c>
       <c r="J135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS135">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="136" spans="1:45">
@@ -19003,112 +19003,112 @@
         <v>1</v>
       </c>
       <c r="J136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS136">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="137" spans="1:45">
@@ -19125,112 +19125,112 @@
         <v>1</v>
       </c>
       <c r="J137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS137">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="138" spans="1:45">
@@ -19369,112 +19369,112 @@
         <v>1</v>
       </c>
       <c r="J139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS139">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="140" spans="1:45">
@@ -19491,112 +19491,112 @@
         <v>1</v>
       </c>
       <c r="J140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS140">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="141" spans="1:45">
@@ -19613,112 +19613,112 @@
         <v>1</v>
       </c>
       <c r="J141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS141">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="142" spans="1:45">
@@ -19857,112 +19857,112 @@
         <v>1</v>
       </c>
       <c r="J143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS143">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="144" spans="1:45">
@@ -19979,112 +19979,112 @@
         <v>1</v>
       </c>
       <c r="J144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS144">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="145" spans="1:45">
@@ -20101,112 +20101,112 @@
         <v>1</v>
       </c>
       <c r="J145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS145">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="146" spans="1:45">
@@ -20345,112 +20345,112 @@
         <v>1</v>
       </c>
       <c r="J147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS147">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="148" spans="1:45">
@@ -20467,112 +20467,112 @@
         <v>1</v>
       </c>
       <c r="J148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS148">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="149" spans="1:45">
@@ -26565,112 +26565,112 @@
         <v>1</v>
       </c>
       <c r="J197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="K197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="L197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="M197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="N197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="O197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="P197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="Q197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="R197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="S197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="T197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="U197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="V197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="W197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="X197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="Y197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="Z197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AA197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AB197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AC197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AD197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AE197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AF197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AG197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AH197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AI197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AJ197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AK197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AL197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AM197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AN197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AO197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AP197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AQ197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AR197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AS197">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
     </row>
     <row r="198" spans="1:45">
@@ -26931,112 +26931,112 @@
         <v>1</v>
       </c>
       <c r="J200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="K200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="L200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="M200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="N200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="O200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="P200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="Q200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="R200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="S200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="T200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="U200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="V200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="W200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="X200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="Y200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="Z200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AA200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AB200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AC200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AD200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AE200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AF200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AG200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AH200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AI200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AJ200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AK200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AL200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AM200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AN200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AO200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AP200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AQ200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AR200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AS200">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
     </row>
     <row r="201" spans="1:45">
@@ -27297,112 +27297,112 @@
         <v>1</v>
       </c>
       <c r="J203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="K203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="L203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="M203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="N203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="O203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="P203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="Q203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="R203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="S203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="T203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="U203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="V203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="W203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="X203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="Y203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="Z203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AA203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AB203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AC203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AD203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AE203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AF203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AG203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AH203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AI203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AJ203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AK203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AL203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AM203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AN203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AO203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AP203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AQ203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AR203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
       <c r="AS203">
-        <v>0.499945538515162</v>
+        <v>0.4999455385151621</v>
       </c>
     </row>
     <row r="204" spans="1:45">
@@ -37667,112 +37667,112 @@
         <v>1</v>
       </c>
       <c r="J288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="K288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="L288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="M288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="N288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="O288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="P288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Q288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="R288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="S288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="T288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="U288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="V288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="W288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="X288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Y288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="Z288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AA288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AB288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AC288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AD288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AE288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AF288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AG288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AH288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AI288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AJ288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AK288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AL288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AM288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AN288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AO288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AP288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AQ288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AR288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
       <c r="AS288">
-        <v>0.999891077030324</v>
+        <v>0.9998910770303242</v>
       </c>
     </row>
     <row r="289" spans="1:45">
@@ -37911,112 +37911,112 @@
         <v>1</v>
       </c>
       <c r="J290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS290">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="291" spans="1:45">
@@ -38033,112 +38033,112 @@
         <v>1</v>
       </c>
       <c r="J291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS291">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="292" spans="1:45">
@@ -39619,112 +39619,112 @@
         <v>1</v>
       </c>
       <c r="J304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS304">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="305" spans="1:45">
@@ -39741,112 +39741,112 @@
         <v>1</v>
       </c>
       <c r="J305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS305">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="306" spans="1:45">
@@ -40229,112 +40229,112 @@
         <v>1</v>
       </c>
       <c r="J309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="K309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="L309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="M309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="N309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="O309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="P309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Q309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="R309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="S309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="T309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="U309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="V309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="W309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="X309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Y309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="Z309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AA309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AB309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AC309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AD309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AE309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AF309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AG309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AH309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AI309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AJ309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AK309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AL309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AM309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AN309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AO309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AP309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AQ309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AR309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
       <c r="AS309">
-        <v>0.724944993900314</v>
+        <v>0.7249449939003137</v>
       </c>
     </row>
     <row r="310" spans="1:45">
@@ -40351,112 +40351,112 @@
         <v>1</v>
       </c>
       <c r="J310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="K310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="L310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="M310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="N310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="O310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="P310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Q310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="R310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="S310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="T310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="U310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="V310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="W310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="X310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Y310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="Z310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AA310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AB310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AC310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AD310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AE310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AF310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AG310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AH310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AI310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AJ310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AK310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AL310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AM310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AN310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AO310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AP310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AQ310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AR310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
       <c r="AS310">
-        <v>0.275055006099686</v>
+        <v>0.2750550060996863</v>
       </c>
     </row>
     <row r="311" spans="1:45">
